--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,72</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,62</t>
+          <t>6,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,18</t>
+          <t>-0,68; 2,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,16</t>
+          <t>0,83; 8,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,58</t>
+          <t>-0,29; 5,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,09</t>
+          <t>4,76; 16,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,85</t>
+          <t>-0,14; 3,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 20,63</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 3,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 5,29</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>5,86; 11,98</t>
+          <t>3,56; 10,14</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>73,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>429,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>67,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>266,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>68,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>279,59%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,77; 790,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 2083,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 208,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,88; 640,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 212,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>115,72; 589,69</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,28</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,41</t>
+          <t>4,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,29</t>
+          <t>-2,62; 1,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,8</t>
+          <t>-0,69; 5,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,95</t>
+          <t>-3,49; 2,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 9,3</t>
+          <t>-0,08; 9,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,77</t>
+          <t>-2,43; 1,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,1</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 6,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 6,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 11,82</t>
+          <t>1,39; 7,11</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-15,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>76,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>80,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,0; 71,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,57; 196,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,85; 42,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 164,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,88; 27,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>22,87; 158,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,74</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,76</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12,97</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,64</t>
+          <t>-2,58; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,6</t>
+          <t>0,28; 6,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,88</t>
+          <t>-9,1; -1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,59</t>
+          <t>-4,12; 5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,92</t>
+          <t>-5,53; -0,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,17; 19,72</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 12,61</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,61; 9,6</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>10,9; 14,99</t>
+          <t>-0,62; 4,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-34,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-26,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,04; 64,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 154,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,31; -13,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,24; 36,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,16; -5,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-5,35; 50,39</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,89</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,69</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,75</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,74</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>17,87</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17,83</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>20,01</t>
+          <t>2,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,9</t>
+          <t>-3,11; 5,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,79</t>
+          <t>-8,06; 7,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 20,32</t>
+          <t>-6,07; 4,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,46; 26,41</t>
+          <t>-0,62; 9,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,52; 24,97</t>
+          <t>-3,01; 3,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,55; 30,88</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>15,65; 20,26</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15,74; 20,1</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>12,55; 24,49</t>
+          <t>-6,63; 7,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>11,95%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 46,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,4; 62,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,87; 19,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 48,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 20,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-33,92; 41,51</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>25,99</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27,33</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45,44</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>38,75</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>39,28</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>35,92</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>31,17</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>33,23</t>
+          <t>-2,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,72; 30,42</t>
+          <t>-8,34; 3,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,59; 27,81</t>
+          <t>-4,55; 6,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>23,99; 31,05</t>
+          <t>-13,15; 0,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,73; 50,71</t>
+          <t>-12,56; -0,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,03; 43,23</t>
+          <t>-9,38; -0,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,22; 42,24</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>32,91; 39,28</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>27,83; 34,3</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>30,91; 35,56</t>
+          <t>-7,05; 1,29</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,54%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-7,47%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,56; 14,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; 30,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,28; -0,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,39; -1,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,47; 0,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-18,47; 3,82</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>50,99</t>
+          <t>-17,35</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>33,63</t>
+          <t>-22,35</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>-9,21</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>61,97</t>
+          <t>-30,93</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>52,76</t>
+          <t>-13,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>31,04</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>56,84</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>43,78</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>30,13</t>
+          <t>-26,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>44,94; 56,72</t>
+          <t>-24,47; -9,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>28,43; 39,07</t>
+          <t>-28,85; -14,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>24,98; 32,39</t>
+          <t>-16,63; -2,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>56,32; 67,45</t>
+          <t>-54,02; -13,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>47,58; 58,07</t>
+          <t>-17,78; -7,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,01; 47,61</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>53,14; 61,01</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>40,16; 47,46</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>13,39; 38,89</t>
+          <t>-41,81; -17,32</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-43,83%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,86%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-49,92%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-46,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,33; -19,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,46; -32,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,36; -3,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,96; -22,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,39; -13,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-71,8; -30,64</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>66,4</t>
+          <t>-15,43</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>50,97</t>
+          <t>-22,9</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>43,5</t>
+          <t>-15,56</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>78,55</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>62,99</t>
+          <t>-15,51</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>68,74</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>73,8</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>58,29</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>58,67</t>
+          <t>-15,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>59,91; 72,1</t>
+          <t>-23,49; -6,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>45,54; 56,6</t>
+          <t>-30,66; -14,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>38,6; 48,13</t>
+          <t>-22,52; -8,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>73,77; 82,78</t>
+          <t>-14,38; -4,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>58,0; 68,69</t>
+          <t>-20,81; -9,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>65,25; 71,85</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>69,76; 77,18</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>54,16; 62,36</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>56,02; 61,61</t>
+          <t>-19,97; -10,32</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-23,23%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,81%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-21,01%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-20,5%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,82; -11,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,16; -23,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,08; -11,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,8; -6,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,67; -14,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-26,19; -14,76</t>
         </is>
       </c>
     </row>
@@ -2144,47 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>17,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>29,19</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>25,77</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>29,62</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>23,21</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>20,46</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>23,63</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -2197,47 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>15,65; 18,48</t>
+          <t>-3,75; -0,2</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,23</t>
+          <t>-3,54; 2,42</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,0</t>
+          <t>-5,66; -1,28</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>27,74; 30,61</t>
+          <t>-5,24; 3,53</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,51</t>
+          <t>-4,16; -1,38</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>24,67; 32,29</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>22,12; 24,29</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 21,47</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 25,37</t>
+          <t>-2,99; 2,48</t>
         </is>
       </c>
     </row>
@@ -2250,47 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,23%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,71%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,83%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; -1,36</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 14,75</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,8; -4,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; 12,49</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; -6,21</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-12,59; 10,84</t>
         </is>
       </c>
     </row>
@@ -2358,11 +1847,11 @@
   <mergeCells count="12">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
